--- a/data/trans_orig/Q23_tabaco_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>274018</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>248063</v>
+        <v>249855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>294321</v>
+        <v>299476</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4672106750606306</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4229555362308046</v>
+        <v>0.4260119768591987</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5018276430244532</v>
+        <v>0.510617181946502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -765,19 +765,19 @@
         <v>54130</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42488</v>
+        <v>43134</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68632</v>
+        <v>67001</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.258243226268212</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2027033704094986</v>
+        <v>0.2057863844876997</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3274302274468728</v>
+        <v>0.3196468704941146</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>327</v>
@@ -786,19 +786,19 @@
         <v>328148</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>299225</v>
+        <v>300725</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>353996</v>
+        <v>354166</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4121912274851789</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3758613526240928</v>
+        <v>0.3777446507361792</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4446589789203982</v>
+        <v>0.4448724559655725</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>312480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292177</v>
+        <v>287022</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>338435</v>
+        <v>336643</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5327893249393694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4981723569755468</v>
+        <v>0.4893828180534979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5770444637691952</v>
+        <v>0.5739880231408011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>149</v>
@@ -836,19 +836,19 @@
         <v>155478</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>140976</v>
+        <v>142607</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>167120</v>
+        <v>166474</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7417567737317879</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6725697725531272</v>
+        <v>0.6803531295058856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7972966295905018</v>
+        <v>0.7942136155123002</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>461</v>
@@ -857,19 +857,19 @@
         <v>467958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>442110</v>
+        <v>441940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>496881</v>
+        <v>495381</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5878087725148211</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5553410210796017</v>
+        <v>0.5551275440344275</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6241386473759071</v>
+        <v>0.6222553492638209</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>289157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>258572</v>
+        <v>263066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>315437</v>
+        <v>319190</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3232481458574057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2890569303896867</v>
+        <v>0.294081824342536</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3526271972865223</v>
+        <v>0.3568227044286471</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>180</v>
@@ -982,19 +982,19 @@
         <v>180412</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>154982</v>
+        <v>160805</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>201198</v>
+        <v>203881</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2911606969516404</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2501209177656888</v>
+        <v>0.2595182802479342</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3247066322373929</v>
+        <v>0.3290367892417481</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>465</v>
@@ -1003,19 +1003,19 @@
         <v>469568</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>436301</v>
+        <v>435042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>506447</v>
+        <v>503391</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3101172518971307</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2881461568519804</v>
+        <v>0.2873152051632189</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3344729649448485</v>
+        <v>0.332454520794814</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>605378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>579098</v>
+        <v>575345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>635963</v>
+        <v>631469</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6767518541425943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6473728027134783</v>
+        <v>0.6431772955713528</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7109430696103135</v>
+        <v>0.705918175657464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>427</v>
@@ -1053,19 +1053,19 @@
         <v>439217</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>418431</v>
+        <v>415748</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>464647</v>
+        <v>458824</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7088393030483596</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.675293367762607</v>
+        <v>0.6709632107582519</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7498790822343109</v>
+        <v>0.7404817197520658</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1015</v>
@@ -1074,19 +1074,19 @@
         <v>1044596</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1007717</v>
+        <v>1010773</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1077863</v>
+        <v>1079122</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6898827481028692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6655270350551515</v>
+        <v>0.667545479205186</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7118538431480198</v>
+        <v>0.712684794836781</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>45086</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32654</v>
+        <v>33579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58440</v>
+        <v>57701</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1929347349613427</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1397350214547121</v>
+        <v>0.1436946033436778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2500828763156943</v>
+        <v>0.2469187770793852</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1199,19 +1199,19 @@
         <v>27476</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18764</v>
+        <v>18595</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38208</v>
+        <v>39029</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1639966978030991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1119964017856385</v>
+        <v>0.1109862297950064</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.228050559410967</v>
+        <v>0.2329502798533608</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -1220,19 +1220,19 @@
         <v>72562</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57282</v>
+        <v>55721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89191</v>
+        <v>89256</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1808508878843782</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1427661332911285</v>
+        <v>0.1388762868142274</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.222296795331367</v>
+        <v>0.2224575945879976</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>188598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>175244</v>
+        <v>175983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201030</v>
+        <v>200105</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8070652650386573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7499171236843056</v>
+        <v>0.7530812229206145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8602649785452878</v>
+        <v>0.8563053966563221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>135</v>
@@ -1270,19 +1270,19 @@
         <v>140067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>129335</v>
+        <v>128514</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148779</v>
+        <v>148948</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8360033021969009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7719494405890324</v>
+        <v>0.7670497201466386</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8880035982143615</v>
+        <v>0.8890137702049931</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>317</v>
@@ -1291,19 +1291,19 @@
         <v>328665</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>312036</v>
+        <v>311971</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>343945</v>
+        <v>345506</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8191491121156218</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7777032046686331</v>
+        <v>0.7775424054120024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8572338667088715</v>
+        <v>0.8611237131857725</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>608261</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3547294652846681</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>261</v>
@@ -1416,19 +1416,19 @@
         <v>262018</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2628643810424137</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>861</v>
@@ -1437,19 +1437,19 @@
         <v>870279</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3209586946082496</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1106456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1067349</v>
+        <v>1064444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1146272</v>
+        <v>1143414</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6452705347153319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6224635466377236</v>
+        <v>0.6207695198558811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6684906355298047</v>
+        <v>0.6668238529913163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>711</v>
@@ -1487,19 +1487,19 @@
         <v>734763</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>705745</v>
+        <v>706438</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>761023</v>
+        <v>760652</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7371356189575863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7080245847554462</v>
+        <v>0.7087190932675876</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7634802068579399</v>
+        <v>0.7631082640099904</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1793</v>
@@ -1508,19 +1508,19 @@
         <v>1841218</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1790889</v>
+        <v>1791807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1889892</v>
+        <v>1891967</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6790413053917503</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6604797429004037</v>
+        <v>0.6608184053998069</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6969922442468763</v>
+        <v>0.6977571948873729</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>311539</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>285732</v>
+        <v>283202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>341099</v>
+        <v>336874</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4596763850961986</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4215983291802864</v>
+        <v>0.417865006879127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5032929226419561</v>
+        <v>0.4970583025082174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -1872,19 +1872,19 @@
         <v>82030</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67770</v>
+        <v>66640</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98237</v>
+        <v>98803</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3115793991194961</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2574151136665667</v>
+        <v>0.2531241582654175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3731401405527381</v>
+        <v>0.3752931097183007</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>373</v>
@@ -1893,19 +1893,19 @@
         <v>393568</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>363141</v>
+        <v>359346</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>422972</v>
+        <v>425802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4182425236179946</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3859082481266137</v>
+        <v>0.3818756201167334</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4494903804292172</v>
+        <v>0.4524980386513163</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>366196</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>336636</v>
+        <v>340861</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>392003</v>
+        <v>394533</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5403236149038014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4967070773580437</v>
+        <v>0.5029416974917826</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5784016708197133</v>
+        <v>0.5821349931208729</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>170</v>
@@ -1943,19 +1943,19 @@
         <v>181240</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165033</v>
+        <v>164467</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>195500</v>
+        <v>196630</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6884206008805038</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6268598594472614</v>
+        <v>0.6247068902816993</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7425848863334327</v>
+        <v>0.7468758417345828</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>506</v>
@@ -1964,19 +1964,19 @@
         <v>547436</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>518032</v>
+        <v>515202</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>577863</v>
+        <v>581658</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5817574763820054</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5505096195707829</v>
+        <v>0.5475019613486837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6140917518733866</v>
+        <v>0.6181243798832665</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>369822</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>339246</v>
+        <v>337703</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>402840</v>
+        <v>403992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3319806262128722</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3045332450334507</v>
+        <v>0.3031478959169804</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3616201199800745</v>
+        <v>0.3626544085710371</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -2089,19 +2089,19 @@
         <v>244420</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>217336</v>
+        <v>220557</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>272033</v>
+        <v>272603</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2882230684316541</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2562860181790363</v>
+        <v>0.2600835513171385</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3207846586999918</v>
+        <v>0.3214570649973849</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>572</v>
@@ -2110,19 +2110,19 @@
         <v>614241</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>572325</v>
+        <v>569864</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>654430</v>
+        <v>652551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3130676598201848</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2917034539852609</v>
+        <v>0.2904496223528601</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3335509573322569</v>
+        <v>0.3325936777394983</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>744164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>711146</v>
+        <v>709994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>774740</v>
+        <v>776283</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6680193737871278</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6383798800199255</v>
+        <v>0.637345591428963</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6954667549665493</v>
+        <v>0.6968521040830197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>552</v>
@@ -2160,19 +2160,19 @@
         <v>603603</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>575990</v>
+        <v>575420</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>630687</v>
+        <v>627466</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7117769315683459</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6792153413000083</v>
+        <v>0.6785429350026155</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.743713981820964</v>
+        <v>0.7399164486828617</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1248</v>
@@ -2181,19 +2181,19 @@
         <v>1347767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1307578</v>
+        <v>1309457</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1389683</v>
+        <v>1392144</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6869323401798152</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6664490426677431</v>
+        <v>0.6674063222605016</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.708296546014739</v>
+        <v>0.7095503776471399</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>47884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34876</v>
+        <v>35669</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63281</v>
+        <v>63482</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.199112191239627</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1450202511783603</v>
+        <v>0.1483207198907633</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.263136311501023</v>
+        <v>0.2639734394367511</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -2306,19 +2306,19 @@
         <v>37210</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25343</v>
+        <v>26200</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50834</v>
+        <v>53360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1813032059447058</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1234813589065219</v>
+        <v>0.1276581959757578</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.247686718505831</v>
+        <v>0.259993766200278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -2327,19 +2327,19 @@
         <v>85094</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67623</v>
+        <v>69844</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105507</v>
+        <v>104824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1909119842311574</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1517157496930834</v>
+        <v>0.1566986783683742</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2367110222814832</v>
+        <v>0.2351778597248868</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>192604</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>177207</v>
+        <v>177006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205612</v>
+        <v>204819</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.800887808760373</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7368636884989773</v>
+        <v>0.7360265605632489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8549797488216399</v>
+        <v>0.8516792801092367</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -2377,19 +2377,19 @@
         <v>168024</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154400</v>
+        <v>151874</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179891</v>
+        <v>179034</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8186967940552942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7523132814941689</v>
+        <v>0.740006233799722</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.876518641093478</v>
+        <v>0.8723418040242421</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>332</v>
@@ -2398,19 +2398,19 @@
         <v>360628</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>340215</v>
+        <v>340898</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>378099</v>
+        <v>375878</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8090880157688426</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7632889777185169</v>
+        <v>0.7648221402751132</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8482842503069167</v>
+        <v>0.8433013216316257</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>729244</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>684357</v>
+        <v>687324</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>779278</v>
+        <v>778109</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.358843314564998</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.336755331486221</v>
+        <v>0.3382153392186034</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3834634610213374</v>
+        <v>0.3828883658563066</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>331</v>
@@ -2523,19 +2523,19 @@
         <v>363659</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2762258851911721</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1016</v>
@@ -2544,19 +2544,19 @@
         <v>1092903</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1039134</v>
+        <v>1035514</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1145678</v>
+        <v>1151432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3263629768267867</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3103063719631823</v>
+        <v>0.3092253272406877</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3421224741819863</v>
+        <v>0.3438409215307311</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1302964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1252930</v>
+        <v>1254099</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1347851</v>
+        <v>1344884</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6411566854350019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6165365389786626</v>
+        <v>0.6171116341436934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6632446685137789</v>
+        <v>0.6617846607813967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>878</v>
@@ -2594,19 +2594,19 @@
         <v>952867</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>918945</v>
+        <v>918439</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>984738</v>
+        <v>986043</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7237741148088279</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.698007359175691</v>
+        <v>0.6976232272457131</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.747982411825118</v>
+        <v>0.7489736610995649</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2086</v>
@@ -2615,19 +2615,19 @@
         <v>2255832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2203057</v>
+        <v>2197303</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2309601</v>
+        <v>2313221</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6736370231732134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6578775258180137</v>
+        <v>0.6561590784692688</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6896936280368178</v>
+        <v>0.6907746727593123</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>193821</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>175523</v>
+        <v>171932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>216019</v>
+        <v>214631</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4531353425734992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4103569403275831</v>
+        <v>0.4019613287915944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5050312652548358</v>
+        <v>0.5017862212002231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -2979,19 +2979,19 @@
         <v>57901</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46442</v>
+        <v>46005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72064</v>
+        <v>70373</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3345905823921024</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2683727904937788</v>
+        <v>0.2658494498545627</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4164356226038133</v>
+        <v>0.4066662806504175</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>253</v>
@@ -3000,19 +3000,19 @@
         <v>251721</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>227525</v>
+        <v>229739</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>275485</v>
+        <v>280863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4189897979306861</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3787161707294945</v>
+        <v>0.3824002046707929</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4585456079692552</v>
+        <v>0.4674961990848857</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>233912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>211714</v>
+        <v>213102</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>252210</v>
+        <v>255801</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5468646574265008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4949687347451642</v>
+        <v>0.4982137787997769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5896430596724167</v>
+        <v>0.5980386712084056</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>109</v>
@@ -3050,19 +3050,19 @@
         <v>115148</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>100985</v>
+        <v>102676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126607</v>
+        <v>127044</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6654094176078976</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5835643773961866</v>
+        <v>0.5933337193495827</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7316272095062212</v>
+        <v>0.7341505501454376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>343</v>
@@ -3071,19 +3071,19 @@
         <v>349060</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325296</v>
+        <v>319918</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>373256</v>
+        <v>371042</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5810102020693139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5414543920307449</v>
+        <v>0.5325038009151145</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6212838292705055</v>
+        <v>0.6175997953292071</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>388853</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>356182</v>
+        <v>360250</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>422361</v>
+        <v>423286</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3514133400222008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3218878609727517</v>
+        <v>0.3255639807747321</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3816948695012684</v>
+        <v>0.382530768801973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>210</v>
@@ -3196,19 +3196,19 @@
         <v>214042</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>191199</v>
+        <v>191221</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241323</v>
+        <v>243164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2522471461851537</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2253262979723238</v>
+        <v>0.2253525914805047</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2843970173684837</v>
+        <v>0.2865668979106022</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>571</v>
@@ -3217,19 +3217,19 @@
         <v>602895</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>561807</v>
+        <v>563324</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>643168</v>
+        <v>646763</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3083734206903911</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2873574261432946</v>
+        <v>0.2881333668458931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3289726115392974</v>
+        <v>0.3308111963880828</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>717688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>684180</v>
+        <v>683255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>750359</v>
+        <v>746291</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6485866599777992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6183051304987317</v>
+        <v>0.617469231198027</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6781121390272483</v>
+        <v>0.6744360192252679</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>606</v>
@@ -3267,19 +3267,19 @@
         <v>634499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>607218</v>
+        <v>605377</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>657342</v>
+        <v>657320</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7477528538148462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7156029826315166</v>
+        <v>0.7134331020893978</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7746737020276763</v>
+        <v>0.7746474085194952</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1277</v>
@@ -3288,19 +3288,19 @@
         <v>1352187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1311914</v>
+        <v>1308319</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1393275</v>
+        <v>1391758</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6916265793096088</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6710273884607021</v>
+        <v>0.6691888036119171</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7126425738567049</v>
+        <v>0.7118666331541069</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>53400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40624</v>
+        <v>40140</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67959</v>
+        <v>68585</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2419060329559839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1840277509435975</v>
+        <v>0.1818379578324684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3078556151088963</v>
+        <v>0.3106932034421872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -3413,19 +3413,19 @@
         <v>49453</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36045</v>
+        <v>37428</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63065</v>
+        <v>61465</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.228399565066869</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1664765161752529</v>
+        <v>0.1728630032509976</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2912681104969017</v>
+        <v>0.2838779404487097</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -3434,19 +3434,19 @@
         <v>102853</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85683</v>
+        <v>84916</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122989</v>
+        <v>123679</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2352181304039406</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1959507755988358</v>
+        <v>0.1941964407293927</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2812680615729632</v>
+        <v>0.2828455536946179</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>167348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>152789</v>
+        <v>152163</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>180124</v>
+        <v>180608</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7580939670440161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6921443848911039</v>
+        <v>0.689306796557813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8159722490564025</v>
+        <v>0.818162042167532</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -3484,19 +3484,19 @@
         <v>167065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153453</v>
+        <v>155053</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180473</v>
+        <v>179090</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.771600434933131</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.708731889503098</v>
+        <v>0.7161220595512898</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8335234838247468</v>
+        <v>0.8271369967490023</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>310</v>
@@ -3505,19 +3505,19 @@
         <v>334414</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>314278</v>
+        <v>313588</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>351584</v>
+        <v>352351</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7647818695960594</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7187319384270368</v>
+        <v>0.7171544463053821</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8040492244011642</v>
+        <v>0.8058035592706073</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>636074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>594106</v>
+        <v>595967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>677399</v>
+        <v>678199</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3624310077946671</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3385178041919089</v>
+        <v>0.3395778173562827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3859777075143258</v>
+        <v>0.3864330921502653</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>314</v>
@@ -3630,19 +3630,19 @@
         <v>321395</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>292654</v>
+        <v>291891</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>354802</v>
+        <v>354370</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2595857449248445</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2363722836556626</v>
+        <v>0.2357556956666013</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.286568209966225</v>
+        <v>0.2862185790245948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>915</v>
@@ -3651,19 +3651,19 @@
         <v>957470</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>910821</v>
+        <v>905421</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1013894</v>
+        <v>1008856</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3198890797094593</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3043037095487356</v>
+        <v>0.3024997387182854</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3387405195572629</v>
+        <v>0.3370570596214278</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1118948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1077623</v>
+        <v>1076823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1160916</v>
+        <v>1159055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6375689922053329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6140222924856743</v>
+        <v>0.6135669078497344</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6614821958080911</v>
+        <v>0.6604221826437172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>876</v>
@@ -3701,19 +3701,19 @@
         <v>916713</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>883306</v>
+        <v>883738</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>945454</v>
+        <v>946217</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7404142550751555</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7134317900337748</v>
+        <v>0.713781420975405</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7636277163443372</v>
+        <v>0.7642443043333984</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1930</v>
@@ -3722,19 +3722,19 @@
         <v>2035660</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1979236</v>
+        <v>1984274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2082309</v>
+        <v>2087709</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6801109202905408</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6612594804427371</v>
+        <v>0.6629429403785722</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6956962904512645</v>
+        <v>0.6975002612817146</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>170168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>152095</v>
+        <v>154430</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186186</v>
+        <v>187277</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5279465988294519</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4718772461390247</v>
+        <v>0.4791213781839395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5776434965494532</v>
+        <v>0.5810269275058083</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -4086,19 +4086,19 @@
         <v>34186</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26641</v>
+        <v>26086</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43003</v>
+        <v>42922</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2698281938621327</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2102753068923503</v>
+        <v>0.2058910752639357</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3394207152249589</v>
+        <v>0.338781220064156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>253</v>
@@ -4107,19 +4107,19 @@
         <v>204354</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>185771</v>
+        <v>186122</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>222533</v>
+        <v>224407</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4551148607618907</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4137295529629699</v>
+        <v>0.4145119524505769</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4956023924803716</v>
+        <v>0.4997760196589145</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>152152</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136134</v>
+        <v>135043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170225</v>
+        <v>167890</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4720534011705481</v>
+        <v>0.4720534011705482</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4223565034505468</v>
+        <v>0.4189730724941915</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5281227538609748</v>
+        <v>0.5208786218160604</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>146</v>
@@ -4157,19 +4157,19 @@
         <v>92510</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83693</v>
+        <v>83774</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100055</v>
+        <v>100610</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7301718061378673</v>
+        <v>0.7301718061378675</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6605792847750411</v>
+        <v>0.6612187799358441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7897246931076497</v>
+        <v>0.7941089247360646</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>333</v>
@@ -4178,19 +4178,19 @@
         <v>244662</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>226483</v>
+        <v>224609</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>263245</v>
+        <v>262894</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5448851392381091</v>
+        <v>0.5448851392381092</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5043976075196285</v>
+        <v>0.5002239803410854</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.58627044703703</v>
+        <v>0.585488047549423</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>297329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>264760</v>
+        <v>266444</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>329297</v>
+        <v>328951</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3077781573786417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2740649233685202</v>
+        <v>0.2758072765728898</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3408692450553417</v>
+        <v>0.3405113572117881</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>219</v>
@@ -4303,19 +4303,19 @@
         <v>169881</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>148885</v>
+        <v>148509</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192821</v>
+        <v>191109</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2373661342371035</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2080292204126077</v>
+        <v>0.2075046923539455</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2694194417166454</v>
+        <v>0.2670264011786333</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>505</v>
@@ -4324,19 +4324,19 @@
         <v>467210</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>429318</v>
+        <v>427668</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>504996</v>
+        <v>505828</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2778131991530014</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.255281514035627</v>
+        <v>0.2543008279179165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3002816600412058</v>
+        <v>0.3007762906096173</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>668721</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>636753</v>
+        <v>637099</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>701290</v>
+        <v>699606</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6922218426213582</v>
+        <v>0.6922218426213583</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6591307549446583</v>
+        <v>0.6594886427882118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7259350766314797</v>
+        <v>0.7241927234271099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>737</v>
@@ -4374,19 +4374,19 @@
         <v>545811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>522871</v>
+        <v>524583</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>566807</v>
+        <v>567183</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7626338657628965</v>
+        <v>0.7626338657628966</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7305805582833546</v>
+        <v>0.7329735988213669</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7919707795873923</v>
+        <v>0.7924953076460546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1349</v>
@@ -4395,19 +4395,19 @@
         <v>1214532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1176746</v>
+        <v>1175914</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1252424</v>
+        <v>1254074</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7221868008469986</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6997183399587938</v>
+        <v>0.6992237093903826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7447184859643728</v>
+        <v>0.7456991720820835</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>50840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38553</v>
+        <v>38938</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64370</v>
+        <v>62992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1997685055098279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.15148921133221</v>
+        <v>0.1530026492246357</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2529338033948665</v>
+        <v>0.24751930569989</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -4520,19 +4520,19 @@
         <v>43072</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33841</v>
+        <v>33862</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55625</v>
+        <v>54609</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2041235325372086</v>
+        <v>0.2041235325372087</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1603752312253769</v>
+        <v>0.1604787505215344</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2636157323477183</v>
+        <v>0.2587983153467239</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -4541,19 +4541,19 @@
         <v>93912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77100</v>
+        <v>78125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110798</v>
+        <v>109568</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2017426067018821</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.165626711568589</v>
+        <v>0.1678282225774174</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2380182387743414</v>
+        <v>0.2353750008566804</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>203654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>190124</v>
+        <v>191502</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>215941</v>
+        <v>215556</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8002314944901722</v>
+        <v>0.8002314944901723</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7470661966051336</v>
+        <v>0.75248069430011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.84851078866779</v>
+        <v>0.8469973507753643</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>234</v>
@@ -4591,19 +4591,19 @@
         <v>167937</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155384</v>
+        <v>156400</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>177168</v>
+        <v>177147</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7958764674627914</v>
+        <v>0.7958764674627915</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7363842676522817</v>
+        <v>0.741201684653276</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8396247687746232</v>
+        <v>0.8395212494784655</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>439</v>
@@ -4612,19 +4612,19 @@
         <v>371591</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>354705</v>
+        <v>355935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>388403</v>
+        <v>387378</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7982573932981178</v>
+        <v>0.798257393298118</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7619817612256585</v>
+        <v>0.7646249991433197</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8343732884314112</v>
+        <v>0.8321717774225827</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>518337</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>482793</v>
+        <v>480058</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>558961</v>
+        <v>557931</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3359575124505971</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3129201177861849</v>
+        <v>0.3111474504170878</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3622882474327371</v>
+        <v>0.3616206282161802</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>331</v>
@@ -4737,19 +4737,19 @@
         <v>247139</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>219982</v>
+        <v>222200</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>270679</v>
+        <v>275133</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2346115574250487</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2088305940576922</v>
+        <v>0.210936198900916</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2569582965053023</v>
+        <v>0.261186083705666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>875</v>
@@ -4758,19 +4758,19 @@
         <v>765476</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>718588</v>
+        <v>719269</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>811982</v>
+        <v>812312</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2948377822641973</v>
+        <v>0.2948377822641972</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2767781124427172</v>
+        <v>0.277040392254582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.312750337428731</v>
+        <v>0.3128776107367202</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1024527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>983903</v>
+        <v>984933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1060071</v>
+        <v>1062806</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6640424875494028</v>
+        <v>0.6640424875494029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6377117525672623</v>
+        <v>0.6383793717838196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.687079882213815</v>
+        <v>0.6888525495829122</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1117</v>
@@ -4808,19 +4808,19 @@
         <v>806258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>782718</v>
+        <v>778264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>833415</v>
+        <v>831197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7653884425749513</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7430417034946977</v>
+        <v>0.7388139162943338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.791169405942308</v>
+        <v>0.7890638010990839</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2121</v>
@@ -4829,19 +4829,19 @@
         <v>1830786</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1784280</v>
+        <v>1783950</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1877674</v>
+        <v>1876993</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7051622177358028</v>
+        <v>0.7051622177358027</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6872496625712692</v>
+        <v>0.6871223892632798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7232218875572829</v>
+        <v>0.722959607745418</v>
       </c>
     </row>
     <row r="15">
